--- a/bases/INEGI/SCN/Cuentas/Consumo de los hogares.xlsx
+++ b/bases/INEGI/SCN/Cuentas/Consumo de los hogares.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA68299-A5C9-4EBF-91FF-7202F6819905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo de los hogares" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Consumo_de_los_hogares" localSheetId="0">'Consumo de los hogares'!$A$1:$BF$24</definedName>
+    <definedName name="Consumo_de_los_hogares" localSheetId="0">'Consumo de los hogares'!$A$1:$BF$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\Consumo de los hogares.IQY" name="Consumo de los hogares" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\Consumo de los hogares.IQY" name="Consumo de los hogares" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,500864,500865,500866,500867,500868,500869,500870,500871,500872,500873,500874,500875,500877,500878,500879,500880,500881,500882,500883,500884,500885,500886,500887,500888,500889,500890,500891,500892,500893,500894,500895,500896,500897,500898,500899,500900,500901,500902,500903,500904,500905,500906,500907,500908,500909,500910,500911,500912,500913,500914,500915,500916,500917,500918,500919,500920,500921,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -246,7 +247,7 @@
   </si>
   <si>
     <r>
-      <t>2016</t>
+      <t>2017</t>
     </r>
     <r>
       <rPr>
@@ -258,15 +259,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>r/</t>
+      <t>p/</t>
     </r>
   </si>
   <si>
-    <t>Cifras revisadas:</t>
+    <t>Cifras preliminares:</t>
   </si>
   <si>
     <r>
-      <t>r/</t>
+      <t>p/</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +277,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A partir de 2016</t>
+      <t xml:space="preserve"> A partir de 2017</t>
     </r>
   </si>
   <si>
@@ -295,13 +296,13 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 16/08/2018 16:09:02</t>
+    <t>Fecha de consulta: 21/11/2018 18:06:56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -854,27 +855,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -943,7 +944,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1002,7 +1003,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1014,7 +1015,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1031,9 +1032,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1061,14 +1062,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1096,6 +1114,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1248,19 +1283,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF24"/>
+  <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="58" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="58" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1357,7 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:58" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1672,7 +1707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2003</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>110980.913</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2004</v>
       </c>
@@ -2024,7 +2059,7 @@
         <v>113569.20299999999</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>120335.61199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2006</v>
       </c>
@@ -2376,7 +2411,7 @@
         <v>129989.022</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2007</v>
       </c>
@@ -2552,7 +2587,7 @@
         <v>134587.361</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2008</v>
       </c>
@@ -2728,7 +2763,7 @@
         <v>142382.818</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2009</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>147517.266</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2010</v>
       </c>
@@ -3080,7 +3115,7 @@
         <v>152109.09899999999</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>2011</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>160029.66200000001</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2012</v>
       </c>
@@ -3432,7 +3467,7 @@
         <v>171790.951</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2013</v>
       </c>
@@ -3608,7 +3643,7 @@
         <v>174900.92300000001</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>184202.17300000001</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -3960,307 +3995,421 @@
         <v>196368.27900000001</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13364571.409</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3143133.0830000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2783769.747</v>
+      </c>
+      <c r="E17" s="3">
+        <v>359363.33600000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>391074.67700000003</v>
+      </c>
+      <c r="G17" s="3">
+        <v>262766.04599999997</v>
+      </c>
+      <c r="H17" s="3">
+        <v>128308.63099999999</v>
+      </c>
+      <c r="I17" s="3">
+        <v>404853.64299999998</v>
+      </c>
+      <c r="J17" s="3">
+        <v>299920.386</v>
+      </c>
+      <c r="K17" s="3">
+        <v>104933.257</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2377735.7209999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1922127.682</v>
+      </c>
+      <c r="N17" s="3">
+        <v>170960.658</v>
+      </c>
+      <c r="O17" s="3">
+        <v>49296.188999999998</v>
+      </c>
+      <c r="P17" s="3">
+        <v>235351.19200000001</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>791604.07700000005</v>
+      </c>
+      <c r="R17" s="3">
+        <v>136780.36199999999</v>
+      </c>
+      <c r="S17" s="3">
+        <v>39324.324000000001</v>
+      </c>
+      <c r="T17" s="3">
+        <v>172446.56899999999</v>
+      </c>
+      <c r="U17" s="3">
+        <v>78455.210000000006</v>
+      </c>
+      <c r="V17" s="3">
+        <v>60404.27</v>
+      </c>
+      <c r="W17" s="3">
+        <v>304193.342</v>
+      </c>
+      <c r="X17" s="3">
+        <v>466195.98100000003</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>278191.022</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>98714.55</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>89290.409</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>2461181.62</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>711885.12300000002</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>883161.02899999998</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>866135.46799999999</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>302713.21600000001</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>16251.621999999999</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>5552.2690000000002</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>280909.32500000001</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>762618.70200000005</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>316778.26500000001</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>12501.276</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>107767.22199999999</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>217900.70800000001</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>82773.078999999998</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>24898.151999999998</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>193713.91099999999</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>52608.233999999997</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>56980.957999999999</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>545.53800000000001</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>80251.576000000001</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>3327.605</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>650088.47100000002</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>346557.946</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>303530.52500000002</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>1419658.307</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>186394.261</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>93020.368000000002</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>14453.353999999999</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>213927.266</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>706716.571</v>
+      </c>
+      <c r="BF17" s="8">
+        <v>205146.48699999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="10">
-        <v>13362461.756999999</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3143150.3760000002</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2783777.7779999999</v>
-      </c>
-      <c r="E17" s="10">
-        <v>359372.598</v>
-      </c>
-      <c r="F17" s="10">
-        <v>391083.42700000003</v>
-      </c>
-      <c r="G17" s="10">
-        <v>262772.59100000001</v>
-      </c>
-      <c r="H17" s="10">
-        <v>128310.836</v>
-      </c>
-      <c r="I17" s="10">
-        <v>404838.81599999999</v>
-      </c>
-      <c r="J17" s="10">
-        <v>299902.42700000003</v>
-      </c>
-      <c r="K17" s="10">
-        <v>104936.389</v>
-      </c>
-      <c r="L17" s="10">
-        <v>2377739.463</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1922127.682</v>
-      </c>
-      <c r="N17" s="10">
-        <v>170954.12</v>
-      </c>
-      <c r="O17" s="10">
-        <v>49296.241000000002</v>
-      </c>
-      <c r="P17" s="10">
-        <v>235361.42</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>793340.60199999996</v>
-      </c>
-      <c r="R17" s="10">
-        <v>136784.076</v>
-      </c>
-      <c r="S17" s="10">
-        <v>39316.156999999999</v>
-      </c>
-      <c r="T17" s="10">
-        <v>173043.21799999999</v>
-      </c>
-      <c r="U17" s="10">
-        <v>79306.134999999995</v>
-      </c>
-      <c r="V17" s="10">
-        <v>60405.497000000003</v>
-      </c>
-      <c r="W17" s="10">
-        <v>304485.51899999997</v>
-      </c>
-      <c r="X17" s="10">
-        <v>466095.78</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>278197.98300000001</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>98714.354000000007</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>89183.442999999999</v>
-      </c>
-      <c r="AB17" s="10">
-        <v>2461046.9270000001</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>711709.05700000003</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>883197.99899999995</v>
-      </c>
-      <c r="AE17" s="10">
-        <v>866139.87100000004</v>
-      </c>
-      <c r="AF17" s="10">
-        <v>302727.90500000003</v>
-      </c>
-      <c r="AG17" s="10">
-        <v>16252.486000000001</v>
-      </c>
-      <c r="AH17" s="10">
-        <v>5552.366</v>
-      </c>
-      <c r="AI17" s="10">
-        <v>280923.05300000001</v>
-      </c>
-      <c r="AJ17" s="10">
-        <v>761832.03700000001</v>
-      </c>
-      <c r="AK17" s="10">
-        <v>316782.027</v>
-      </c>
-      <c r="AL17" s="10">
-        <v>11716.448</v>
-      </c>
-      <c r="AM17" s="10">
-        <v>107768.216</v>
-      </c>
-      <c r="AN17" s="10">
-        <v>217890.43</v>
-      </c>
-      <c r="AO17" s="10">
-        <v>82775.491999999998</v>
-      </c>
-      <c r="AP17" s="10">
-        <v>24899.423999999999</v>
-      </c>
-      <c r="AQ17" s="10">
-        <v>193712.18799999999</v>
-      </c>
-      <c r="AR17" s="10">
-        <v>52608.233999999997</v>
-      </c>
-      <c r="AS17" s="10">
-        <v>56985.684000000001</v>
-      </c>
-      <c r="AT17" s="10">
-        <v>545.53800000000001</v>
-      </c>
-      <c r="AU17" s="10">
-        <v>80245.126999999993</v>
-      </c>
-      <c r="AV17" s="10">
-        <v>3327.605</v>
-      </c>
-      <c r="AW17" s="10">
-        <v>649934.14399999997</v>
-      </c>
-      <c r="AX17" s="10">
-        <v>346569.66700000002</v>
-      </c>
-      <c r="AY17" s="10">
-        <v>303364.47700000001</v>
-      </c>
-      <c r="AZ17" s="10">
-        <v>1416960.0919999999</v>
-      </c>
-      <c r="BA17" s="10">
-        <v>186398.81899999999</v>
-      </c>
-      <c r="BB17" s="10">
-        <v>89977.316999999995</v>
-      </c>
-      <c r="BC17" s="10">
-        <v>14606.985000000001</v>
-      </c>
-      <c r="BD17" s="10">
-        <v>213938.61</v>
-      </c>
-      <c r="BE17" s="10">
-        <v>706924.59400000004</v>
-      </c>
-      <c r="BF17" s="11">
-        <v>205113.76699999999</v>
+      <c r="B18" s="10">
+        <v>14507732.395</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3531209.8390000002</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3140790.432</v>
+      </c>
+      <c r="E18" s="10">
+        <v>390419.40700000001</v>
+      </c>
+      <c r="F18" s="10">
+        <v>452877.43400000001</v>
+      </c>
+      <c r="G18" s="10">
+        <v>299251.18900000001</v>
+      </c>
+      <c r="H18" s="10">
+        <v>153626.245</v>
+      </c>
+      <c r="I18" s="10">
+        <v>420556.88699999999</v>
+      </c>
+      <c r="J18" s="10">
+        <v>310652.57199999999</v>
+      </c>
+      <c r="K18" s="10">
+        <v>109904.315</v>
+      </c>
+      <c r="L18" s="10">
+        <v>2548039.4070000001</v>
+      </c>
+      <c r="M18" s="10">
+        <v>2013380.1440000001</v>
+      </c>
+      <c r="N18" s="10">
+        <v>190414.473</v>
+      </c>
+      <c r="O18" s="10">
+        <v>52502.875999999997</v>
+      </c>
+      <c r="P18" s="10">
+        <v>291741.91399999999</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>833174.92599999998</v>
+      </c>
+      <c r="R18" s="10">
+        <v>138149.065</v>
+      </c>
+      <c r="S18" s="10">
+        <v>38124.758000000002</v>
+      </c>
+      <c r="T18" s="10">
+        <v>184199.83100000001</v>
+      </c>
+      <c r="U18" s="10">
+        <v>86128.687999999995</v>
+      </c>
+      <c r="V18" s="10">
+        <v>62165.144</v>
+      </c>
+      <c r="W18" s="10">
+        <v>324407.44</v>
+      </c>
+      <c r="X18" s="10">
+        <v>509385.41100000002</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>305676.14199999999</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>107594.97500000001</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>96114.293999999994</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>2654757.716</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>759931.40899999999</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>942489.80500000005</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>952336.50199999998</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>315545.71600000001</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>18396.159</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>5659.3230000000003</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>291490.234</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>803366.63699999999</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>324580.61099999998</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>13311.668</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>118251.906</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>232439.04199999999</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>87354.785000000003</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>27428.625</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>206758.198</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>56405.222999999904</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>60346.103999999999</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>585.98099999999999</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>86058.664999999994</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>3362.2249999999999</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>705124.16700000002</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>368432.47399999999</v>
+      </c>
+      <c r="AY18" s="10">
+        <v>336691.69300000003</v>
+      </c>
+      <c r="AZ18" s="10">
+        <v>1526936.057</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>194950.74100000001</v>
+      </c>
+      <c r="BB18" s="10">
+        <v>97752.023000000001</v>
+      </c>
+      <c r="BC18" s="10">
+        <v>15010.244000000001</v>
+      </c>
+      <c r="BD18" s="10">
+        <v>215796.37599999999</v>
+      </c>
+      <c r="BE18" s="10">
+        <v>788742.32799999998</v>
+      </c>
+      <c r="BF18" s="11">
+        <v>214684.345</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
-      <c r="AQ18" s="15"/>
-      <c r="AR18" s="15"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="15"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="15"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="15"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="15"/>
-      <c r="BF18" s="15"/>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
     </row>
-    <row r="19" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-    </row>
-    <row r="20" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4320,9 +4469,9 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
-    <row r="21" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4382,27 +4531,89 @@
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
     </row>
-    <row r="23" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B24" s="14"/>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A1:BF1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:BF18"/>
     <mergeCell ref="A19:BF19"/>
     <mergeCell ref="A20:BF20"/>
     <mergeCell ref="A21:BF21"/>
+    <mergeCell ref="A22:BF22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
